--- a/mysql/repository.xlsx
+++ b/mysql/repository.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7730"/>
+    <workbookView windowWidth="18455" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>value</t>
   </si>
@@ -22,8 +22,14 @@
     <t xml:space="preserve">show slave status </t>
   </si>
   <si>
-    <t>MI:slave_master_info,T:threads,
-RI:slave_relay_log_ifno</t>
+    <t>MI:slave_master_info,
+T:threads,
+RI:slave_relay_log_ifno,
+WI:slave_worker_info
+AF:(replication_applier_filters/
+replication_applier_global_filters)
+RCS:replication_connection_status
+RAS:(replication_applier_status_by_coordinator/replication_applier_status_by_worker)</t>
   </si>
   <si>
     <t>含义</t>
@@ -38,7 +44,7 @@
     <t>T:PROCESSLIST_STATE</t>
   </si>
   <si>
-    <t>10.72.77.138</t>
+    <t>192.168.1.223</t>
   </si>
   <si>
     <t>Master_Host</t>
@@ -94,13 +100,13 @@
 的binlog文件中的位置</t>
   </si>
   <si>
-    <t>relay_log-from_3307.000002</t>
+    <t>relay_log-from_3307.000003</t>
   </si>
   <si>
     <t>Relay_Log_File</t>
   </si>
   <si>
-    <t>RI:Relay_log_name</t>
+    <t>RI,WI:Relay_log_name</t>
   </si>
   <si>
     <t>/database/my3310/log/
@@ -114,7 +120,7 @@
     <t>Relay_Log_Pos</t>
   </si>
   <si>
-    <t>RI:Relay_log_pos</t>
+    <t>RI,WI:Relay_log_pos</t>
   </si>
   <si>
     <t>截至到relay log中的这个位置，已经在副本上由SLAVE_SQL线程应用完成
@@ -124,7 +130,7 @@
     <t>Relay_Master_Log_File</t>
   </si>
   <si>
-    <t>RI:Master_log_name</t>
+    <t>RI,WI:Master_log_name</t>
   </si>
   <si>
     <t>SLAVE_SQL线程当前应用完成的事务对应在
@@ -143,36 +149,91 @@
     <t>Slave_SQL_Running</t>
   </si>
   <si>
+    <t>do_db</t>
+  </si>
+  <si>
     <t>Replicate_Do_DB</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_DO_DB)</t>
+  </si>
+  <si>
+    <t>ignore_db</t>
+  </si>
+  <si>
     <t>Replicate_Ignore_DB</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_IGNORE_DB)</t>
+  </si>
+  <si>
+    <t>do_dbt.do_dbt</t>
+  </si>
+  <si>
     <t>Replicate_Do_Table</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_DO_TABLE)</t>
+  </si>
+  <si>
+    <t>db_dbt.ignore_dbt</t>
+  </si>
+  <si>
     <t>Replicate_Ignore_Table</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_IGNORE_TABLE)</t>
+  </si>
+  <si>
+    <t>db_dbt.wild_do_t%</t>
+  </si>
+  <si>
     <t>Replicate_Wild_Do_Table</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_WILD_DO_TABLE)</t>
+  </si>
+  <si>
+    <t>db_dbt.wild_ignore_t%</t>
+  </si>
+  <si>
     <t>Replicate_Wild_Ignore_Table</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_WILD_IGNORE_TABLE)</t>
+  </si>
+  <si>
     <t>Last_Errno</t>
   </si>
   <si>
+    <t>RCS,RAS:LAST_ERROR_NUMBER</t>
+  </si>
+  <si>
     <t>Last_Error</t>
   </si>
   <si>
+    <t>RCS,RAS:LAST_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>Skip_Counter</t>
   </si>
   <si>
     <t>Exec_Master_Log_Pos</t>
   </si>
   <si>
+    <t>RI,WI:Master_log_pos</t>
+  </si>
+  <si>
+    <t>SLAVE_SQL线程当前应用完成的事务对应在
+master中的binlog文件内的end_log_pos位置</t>
+  </si>
+  <si>
     <t>Relay_Log_Space</t>
   </si>
   <si>
@@ -194,6 +255,9 @@
     <t>Master_SSL_Allowed</t>
   </si>
   <si>
+    <t>MI</t>
+  </si>
+  <si>
     <t>Master_SSL_CA_File</t>
   </si>
   <si>
@@ -218,27 +282,45 @@
     <t>Last_IO_Errno</t>
   </si>
   <si>
+    <t>RCS:LAST_ERROR_NUMBER</t>
+  </si>
+  <si>
     <t>Last_IO_Error</t>
   </si>
   <si>
+    <t>RCS:LAST_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>Last_SQL_Errno</t>
   </si>
   <si>
+    <t>RAS:LAST_ERROR_NUMBER</t>
+  </si>
+  <si>
     <t>Last_SQL_Error</t>
   </si>
   <si>
+    <t>RAS:LAST_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>Replicate_Ignore_Server_Ids</t>
   </si>
   <si>
+    <t>MI:Ignored_server_ids</t>
+  </si>
+  <si>
     <t>Master_Server_Id</t>
   </si>
   <si>
-    <t>151f0348-7e40-11eb-bdf4-fa163eb85e2b</t>
+    <t>373e3224-7e87-11eb-8e2b-000c29f42870</t>
   </si>
   <si>
     <t>Master_UUID</t>
   </si>
   <si>
+    <t>MI:Uuid    RCS:SOURCE_UUID</t>
+  </si>
+  <si>
     <t>mysql.slave_master_info</t>
   </si>
   <si>
@@ -248,6 +330,9 @@
     <t>SQL_Delay</t>
   </si>
   <si>
+    <t>RI:Sql_delay</t>
+  </si>
+  <si>
     <t>SQL_Remaining_Delay</t>
   </si>
   <si>
@@ -260,40 +345,87 @@
     <t>Master_Retry_Count</t>
   </si>
   <si>
+    <t>MI:Retry_count</t>
+  </si>
+  <si>
+    <t>slave到master的重试连接次数</t>
+  </si>
+  <si>
     <t>Master_Bind</t>
   </si>
   <si>
+    <t>MI:Bind</t>
+  </si>
+  <si>
+    <t>用于连接到master的从库的网络接口</t>
+  </si>
+  <si>
     <t>Last_IO_Error_Timestamp</t>
   </si>
   <si>
+    <t>RCS:LAST_ERROR_TIMESTAMP</t>
+  </si>
+  <si>
     <t>Last_SQL_Error_Timestamp</t>
   </si>
   <si>
+    <t>RAS:LAST_ERROR_TIMESTAMP</t>
+  </si>
+  <si>
     <t>Master_SSL_Crl</t>
   </si>
   <si>
     <t>Master_SSL_Crlpath</t>
   </si>
   <si>
+    <t>373e3224-7e87-11eb-8e2b-000c29f42870:1-3</t>
+  </si>
+  <si>
     <t>Retrieved_Gtid_Set</t>
   </si>
   <si>
+    <t>RCS:RECEIVED_TRANSACTION_SET</t>
+  </si>
+  <si>
+    <t>373e3224-7e87-11eb-8e2b-000c29f42870:1-3,
+74b435df-7e8a-11eb-9c26-000c29f42870:1-4</t>
+  </si>
+  <si>
     <t>Executed_Gtid_Set</t>
   </si>
   <si>
+    <t>@@GLOBAL.GTID_EXECUTED</t>
+  </si>
+  <si>
     <t>Auto_Position</t>
   </si>
   <si>
+    <t>MI:Enabled_auto_position</t>
+  </si>
+  <si>
+    <t>(from_db,to_db)</t>
+  </si>
+  <si>
     <t>Replicate_Rewrite_DB</t>
   </si>
   <si>
+    <t>AF:(CHANNEL_NAME=channel,
+FILTER_NAME=REPLICATE_REWRITE_DB)</t>
+  </si>
+  <si>
     <t>from_3307</t>
   </si>
   <si>
     <t>Channel_Name</t>
   </si>
   <si>
+    <t>MI:Channel_name</t>
+  </si>
+  <si>
     <t>Master_TLS_Version</t>
+  </si>
+  <si>
+    <t>MI:</t>
   </si>
   <si>
     <t>Master_public_key_path</t>
@@ -325,23 +457,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,9 +485,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,24 +508,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +540,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -423,7 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,42 +594,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,37 +615,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,25 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,115 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,26 +806,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,26 +824,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,16 +873,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,137 +926,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,7 +1069,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,21 +1399,21 @@
   <sheetPr/>
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.5454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.8181818181818" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1818181818182" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.2727272727273" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="1"/>
+    <col min="3" max="3" width="37.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1851851851852" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.2685185185185" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28" spans="1:5">
+    <row r="2" ht="144" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1431,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1304,7 +1442,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1315,7 +1453,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1326,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>3309</v>
+      <c r="A6" s="4">
+        <v>3307</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1337,7 +1475,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1350,8 +1488,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="28.8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1360,13 +1498,13 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:5">
-      <c r="A9" s="1">
-        <v>1039</v>
+    <row r="9" ht="28.8" spans="1:5">
+      <c r="A9" s="4">
+        <v>850</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -1374,12 +1512,12 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="28.8" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1388,16 +1526,16 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="56" spans="1:5">
-      <c r="A11" s="1">
-        <v>512</v>
+    <row r="11" ht="57.6" spans="1:5">
+      <c r="A11" s="4">
+        <v>1059</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -1405,12 +1543,12 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="28.8" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1419,12 +1557,12 @@
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1435,7 +1573,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1445,304 +1583,476 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" ht="28.8" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
+        <v>56</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>1039</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="43.2" spans="1:5">
+      <c r="A24" s="4">
+        <v>850</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>725</v>
+      <c r="A25" s="4">
+        <v>1481</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
+      <c r="A26" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
-        <v>9</v>
+      <c r="A42" s="4">
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>72</v>
+      <c r="A44" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>86400</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
+    <row r="53" spans="1:3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:3">
+      <c r="A55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
-        <v>86400</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>132</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
